--- a/策划文档/版本进度/bug收集.xlsx
+++ b/策划文档/版本进度/bug收集.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,10 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>困难副本打完第一张图无法传送第二章图，传送点位置没有问题。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>副本的重置有问题，经常会打完一张图就会进行副本结算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -55,6 +51,14 @@
   </si>
   <si>
     <t>死亡后再次挑战副本或者选择其他副本，打完第一章图无法传送至下一章地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技副本无法胜利结算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通副本boss死亡之后立即进行副本结算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -915,7 +919,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1000,14 +1004,14 @@
       <c r="O3" s="4"/>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" ht="51" customHeight="1">
-      <c r="A4" s="98" t="s">
+    <row r="4" spans="1:16" ht="45" customHeight="1">
+      <c r="A4" s="96" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="7"/>
       <c r="D4" s="100"/>
-      <c r="E4" s="15"/>
+      <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -1020,17 +1024,17 @@
       <c r="O4" s="10"/>
       <c r="P4" s="11"/>
     </row>
-    <row r="5" spans="1:16" ht="45" customHeight="1">
-      <c r="A5" s="96" t="s">
+    <row r="5" spans="1:16" ht="93" customHeight="1">
+      <c r="A5" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="100"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="13"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
@@ -1040,55 +1044,57 @@
       <c r="O5" s="10"/>
       <c r="P5" s="11"/>
     </row>
-    <row r="6" spans="1:16" ht="93" customHeight="1">
-      <c r="A6" s="64" t="s">
+    <row r="6" spans="1:16" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="A6" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
       <c r="D6" s="100"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="11"/>
-    </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" ht="51" customHeight="1">
-      <c r="A7" s="46" t="s">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="5"/>
+    </row>
+    <row r="7" spans="1:16" ht="54.75" customHeight="1">
+      <c r="A7" s="98" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="C7" s="99"/>
       <c r="D7" s="100"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="5"/>
-    </row>
-    <row r="8" spans="1:16" ht="54.75" customHeight="1">
-      <c r="A8" s="6"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="11"/>
+    </row>
+    <row r="8" spans="1:16" ht="49.5" customHeight="1">
+      <c r="A8" s="98" t="s">
+        <v>10</v>
+      </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
       <c r="G8" s="14"/>
-      <c r="H8" s="10"/>
+      <c r="H8" s="15"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
@@ -1098,15 +1104,15 @@
       <c r="O8" s="10"/>
       <c r="P8" s="11"/>
     </row>
-    <row r="9" spans="1:16" ht="49.5" customHeight="1">
-      <c r="A9" s="6"/>
+    <row r="9" spans="1:16" ht="33.75" customHeight="1">
+      <c r="A9" s="16"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="15"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
@@ -1116,11 +1122,11 @@
       <c r="O9" s="10"/>
       <c r="P9" s="11"/>
     </row>
-    <row r="10" spans="1:16" ht="33.75" customHeight="1">
+    <row r="10" spans="1:16" ht="43.5" customHeight="1">
       <c r="A10" s="16"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="99"/>
-      <c r="D10" s="99"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="105"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
@@ -1134,15 +1140,15 @@
       <c r="O10" s="10"/>
       <c r="P10" s="11"/>
     </row>
-    <row r="11" spans="1:16" ht="43.5" customHeight="1">
-      <c r="A11" s="16"/>
-      <c r="B11" s="2"/>
+    <row r="11" spans="1:16" ht="82.5" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="105"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="9"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
@@ -1152,12 +1158,12 @@
       <c r="O11" s="10"/>
       <c r="P11" s="11"/>
     </row>
-    <row r="12" spans="1:16" ht="82.5" customHeight="1">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
+    <row r="12" spans="1:16" ht="90.75" customHeight="1">
+      <c r="A12" s="98"/>
+      <c r="B12" s="97"/>
       <c r="C12" s="7"/>
       <c r="D12" s="105"/>
-      <c r="E12" s="8"/>
+      <c r="E12" s="13"/>
       <c r="F12" s="9"/>
       <c r="G12" s="7"/>
       <c r="H12" s="9"/>
@@ -1170,14 +1176,14 @@
       <c r="O12" s="10"/>
       <c r="P12" s="11"/>
     </row>
-    <row r="13" spans="1:16" ht="90.75" customHeight="1">
+    <row r="13" spans="1:16" ht="88.5" customHeight="1">
       <c r="A13" s="98"/>
       <c r="B13" s="97"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="105"/>
+      <c r="D13" s="13"/>
       <c r="E13" s="13"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="14"/>
       <c r="H13" s="9"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
@@ -1188,13 +1194,13 @@
       <c r="O13" s="10"/>
       <c r="P13" s="11"/>
     </row>
-    <row r="14" spans="1:16" ht="88.5" customHeight="1">
-      <c r="A14" s="98"/>
-      <c r="B14" s="97"/>
+    <row r="14" spans="1:16" ht="98.25" customHeight="1">
+      <c r="A14" s="6"/>
+      <c r="B14" s="2"/>
       <c r="C14" s="7"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
+      <c r="F14" s="9"/>
       <c r="G14" s="14"/>
       <c r="H14" s="9"/>
       <c r="I14" s="10"/>
@@ -1206,14 +1212,14 @@
       <c r="O14" s="10"/>
       <c r="P14" s="11"/>
     </row>
-    <row r="15" spans="1:16" ht="98.25" customHeight="1">
+    <row r="15" spans="1:16" ht="79.5" customHeight="1">
       <c r="A15" s="6"/>
       <c r="B15" s="2"/>
       <c r="C15" s="7"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="14"/>
+      <c r="G15" s="7"/>
       <c r="H15" s="9"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
@@ -1224,15 +1230,15 @@
       <c r="O15" s="10"/>
       <c r="P15" s="11"/>
     </row>
-    <row r="16" spans="1:16" ht="79.5" customHeight="1">
+    <row r="16" spans="1:16" ht="118.5" customHeight="1">
       <c r="A16" s="6"/>
       <c r="B16" s="2"/>
       <c r="C16" s="7"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="13"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
@@ -1242,15 +1248,15 @@
       <c r="O16" s="10"/>
       <c r="P16" s="11"/>
     </row>
-    <row r="17" spans="1:16" ht="118.5" customHeight="1">
+    <row r="17" spans="1:16" ht="72" customHeight="1">
       <c r="A17" s="6"/>
       <c r="B17" s="2"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="14"/>
-      <c r="H17" s="13"/>
+      <c r="H17" s="9"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
@@ -1260,13 +1266,13 @@
       <c r="O17" s="10"/>
       <c r="P17" s="11"/>
     </row>
-    <row r="18" spans="1:16" ht="72" customHeight="1">
+    <row r="18" spans="1:16" ht="80.25" customHeight="1">
       <c r="A18" s="6"/>
       <c r="B18" s="2"/>
       <c r="C18" s="7"/>
       <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="15"/>
       <c r="G18" s="14"/>
       <c r="H18" s="9"/>
       <c r="I18" s="10"/>
@@ -1278,7 +1284,7 @@
       <c r="O18" s="10"/>
       <c r="P18" s="11"/>
     </row>
-    <row r="19" spans="1:16" ht="80.25" customHeight="1">
+    <row r="19" spans="1:16" ht="110.25" customHeight="1">
       <c r="A19" s="6"/>
       <c r="B19" s="2"/>
       <c r="C19" s="7"/>
@@ -1286,7 +1292,7 @@
       <c r="E19" s="10"/>
       <c r="F19" s="15"/>
       <c r="G19" s="14"/>
-      <c r="H19" s="9"/>
+      <c r="H19" s="13"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
@@ -1296,15 +1302,14 @@
       <c r="O19" s="10"/>
       <c r="P19" s="11"/>
     </row>
-    <row r="20" spans="1:16" ht="110.25" customHeight="1">
-      <c r="A20" s="6"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="13"/>
+    <row r="20" spans="1:16" ht="30.75" customHeight="1">
+      <c r="A20" s="16"/>
+      <c r="B20" s="15"/>
+      <c r="D20" s="10"/>
       <c r="E20" s="10"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="13"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
@@ -1314,7 +1319,7 @@
       <c r="O20" s="10"/>
       <c r="P20" s="11"/>
     </row>
-    <row r="21" spans="1:16" ht="30.75" customHeight="1">
+    <row r="21" spans="1:16" ht="27" customHeight="1">
       <c r="A21" s="16"/>
       <c r="B21" s="15"/>
       <c r="D21" s="10"/>
@@ -1331,7 +1336,7 @@
       <c r="O21" s="10"/>
       <c r="P21" s="11"/>
     </row>
-    <row r="22" spans="1:16" ht="27" customHeight="1">
+    <row r="22" spans="1:16" ht="28.5" customHeight="1">
       <c r="A22" s="16"/>
       <c r="B22" s="15"/>
       <c r="D22" s="10"/>
@@ -1348,7 +1353,7 @@
       <c r="O22" s="10"/>
       <c r="P22" s="11"/>
     </row>
-    <row r="23" spans="1:16" ht="28.5" customHeight="1">
+    <row r="23" spans="1:16" ht="33.75" customHeight="1">
       <c r="A23" s="16"/>
       <c r="B23" s="15"/>
       <c r="D23" s="10"/>
@@ -1365,7 +1370,7 @@
       <c r="O23" s="10"/>
       <c r="P23" s="11"/>
     </row>
-    <row r="24" spans="1:16" ht="33.75" customHeight="1">
+    <row r="24" spans="1:16" ht="30.75" customHeight="1">
       <c r="A24" s="16"/>
       <c r="B24" s="15"/>
       <c r="D24" s="10"/>
@@ -1382,9 +1387,9 @@
       <c r="O24" s="10"/>
       <c r="P24" s="11"/>
     </row>
-    <row r="25" spans="1:16" ht="30.75" customHeight="1">
-      <c r="A25" s="16"/>
-      <c r="B25" s="15"/>
+    <row r="25" spans="1:16" ht="30" customHeight="1">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
@@ -1416,9 +1421,9 @@
       <c r="O26" s="10"/>
       <c r="P26" s="11"/>
     </row>
-    <row r="27" spans="1:16" ht="30" customHeight="1">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
+    <row r="27" spans="1:16" ht="25.5" customHeight="1">
+      <c r="A27" s="16"/>
+      <c r="B27" s="15"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
@@ -1433,7 +1438,7 @@
       <c r="O27" s="10"/>
       <c r="P27" s="11"/>
     </row>
-    <row r="28" spans="1:16" ht="25.5" customHeight="1">
+    <row r="28" spans="1:16" ht="27" customHeight="1">
       <c r="A28" s="16"/>
       <c r="B28" s="15"/>
       <c r="D28" s="10"/>
@@ -1450,9 +1455,9 @@
       <c r="O28" s="10"/>
       <c r="P28" s="11"/>
     </row>
-    <row r="29" spans="1:16" ht="27" customHeight="1">
+    <row r="29" spans="1:16" ht="26.25" customHeight="1">
       <c r="A29" s="16"/>
-      <c r="B29" s="15"/>
+      <c r="B29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
@@ -1467,8 +1472,8 @@
       <c r="O29" s="10"/>
       <c r="P29" s="11"/>
     </row>
-    <row r="30" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A30" s="16"/>
+    <row r="30" spans="1:16">
+      <c r="A30" s="18"/>
       <c r="B30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
@@ -1586,40 +1591,23 @@
       <c r="O36" s="10"/>
       <c r="P36" s="11"/>
     </row>
-    <row r="37" spans="1:16">
-      <c r="A37" s="18"/>
-      <c r="B37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="11"/>
-    </row>
-    <row r="38" spans="1:16" ht="18.75" thickBot="1">
-      <c r="A38" s="19"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20"/>
-      <c r="O38" s="20"/>
-      <c r="P38" s="22"/>
+    <row r="37" spans="1:16" ht="18.75" thickBot="1">
+      <c r="A37" s="19"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/策划文档/版本进度/bug收集.xlsx
+++ b/策划文档/版本进度/bug收集.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,6 +59,14 @@
   </si>
   <si>
     <t>普通副本boss死亡之后立即进行副本结算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受击转向去掉上下的受击朝向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本界面和技能界面适配满屏，不要漏出后面的背景</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -922,8 +930,8 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1105,7 +1113,9 @@
       <c r="P8" s="11"/>
     </row>
     <row r="9" spans="1:16" ht="33.75" customHeight="1">
-      <c r="A9" s="16"/>
+      <c r="A9" s="96" t="s">
+        <v>11</v>
+      </c>
       <c r="B9" s="2"/>
       <c r="C9" s="99"/>
       <c r="D9" s="99"/>
@@ -1123,7 +1133,9 @@
       <c r="P9" s="11"/>
     </row>
     <row r="10" spans="1:16" ht="43.5" customHeight="1">
-      <c r="A10" s="16"/>
+      <c r="A10" s="96" t="s">
+        <v>12</v>
+      </c>
       <c r="B10" s="2"/>
       <c r="C10" s="7"/>
       <c r="D10" s="105"/>

--- a/策划文档/版本进度/bug收集.xlsx
+++ b/策划文档/版本进度/bug收集.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -31,14 +31,6 @@
   </si>
   <si>
     <t>完成状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物没有血量不会立即死亡，会播放完当前动作才会播放死亡动作。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主角死亡没有死亡动作播放。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -927,11 +919,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -972,77 +964,77 @@
       <c r="O1" s="26"/>
       <c r="P1" s="27"/>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="108" customHeight="1">
-      <c r="A2" s="46" t="s">
+    <row r="2" spans="1:16" ht="45" customHeight="1">
+      <c r="A2" s="96" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="C2" s="7"/>
       <c r="D2" s="100"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="5"/>
-    </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" ht="51" customHeight="1">
-      <c r="A3" s="46" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="11"/>
+    </row>
+    <row r="3" spans="1:16" ht="93" customHeight="1">
+      <c r="A3" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
       <c r="D3" s="100"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="5"/>
-    </row>
-    <row r="4" spans="1:16" ht="45" customHeight="1">
-      <c r="A4" s="96" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="11"/>
+    </row>
+    <row r="4" spans="1:16" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="A4" s="46" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="7"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="100"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="11"/>
-    </row>
-    <row r="5" spans="1:16" ht="93" customHeight="1">
-      <c r="A5" s="64" t="s">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="5"/>
+    </row>
+    <row r="5" spans="1:16" ht="54.75" customHeight="1">
+      <c r="A5" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="99"/>
       <c r="D5" s="100"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
       <c r="G5" s="14"/>
-      <c r="H5" s="13"/>
+      <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
@@ -1052,36 +1044,36 @@
       <c r="O5" s="10"/>
       <c r="P5" s="11"/>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" ht="51" customHeight="1">
-      <c r="A6" s="46" t="s">
+    <row r="6" spans="1:16" ht="49.5" customHeight="1">
+      <c r="A6" s="98" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="5"/>
-    </row>
-    <row r="7" spans="1:16" ht="54.75" customHeight="1">
-      <c r="A7" s="98" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="11"/>
+    </row>
+    <row r="7" spans="1:16" ht="33.75" customHeight="1">
+      <c r="A7" s="96" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="99"/>
-      <c r="D7" s="100"/>
+      <c r="D7" s="99"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="14"/>
+      <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
@@ -1092,17 +1084,17 @@
       <c r="O7" s="10"/>
       <c r="P7" s="11"/>
     </row>
-    <row r="8" spans="1:16" ht="49.5" customHeight="1">
-      <c r="A8" s="98" t="s">
+    <row r="8" spans="1:16" ht="43.5" customHeight="1">
+      <c r="A8" s="96" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="15"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
@@ -1112,17 +1104,15 @@
       <c r="O8" s="10"/>
       <c r="P8" s="11"/>
     </row>
-    <row r="9" spans="1:16" ht="33.75" customHeight="1">
-      <c r="A9" s="96" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="99"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
+    <row r="9" spans="1:16" ht="82.5" customHeight="1">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="9"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
@@ -1132,17 +1122,15 @@
       <c r="O9" s="10"/>
       <c r="P9" s="11"/>
     </row>
-    <row r="10" spans="1:16" ht="43.5" customHeight="1">
-      <c r="A10" s="96" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="2"/>
+    <row r="10" spans="1:16" ht="90.75" customHeight="1">
+      <c r="A10" s="98"/>
+      <c r="B10" s="97"/>
       <c r="C10" s="7"/>
       <c r="D10" s="105"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="9"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
@@ -1152,14 +1140,14 @@
       <c r="O10" s="10"/>
       <c r="P10" s="11"/>
     </row>
-    <row r="11" spans="1:16" ht="82.5" customHeight="1">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
+    <row r="11" spans="1:16" ht="88.5" customHeight="1">
+      <c r="A11" s="98"/>
+      <c r="B11" s="97"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="7"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14"/>
       <c r="H11" s="9"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
@@ -1170,14 +1158,14 @@
       <c r="O11" s="10"/>
       <c r="P11" s="11"/>
     </row>
-    <row r="12" spans="1:16" ht="90.75" customHeight="1">
-      <c r="A12" s="98"/>
-      <c r="B12" s="97"/>
+    <row r="12" spans="1:16" ht="98.25" customHeight="1">
+      <c r="A12" s="6"/>
+      <c r="B12" s="2"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="105"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="13"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="7"/>
+      <c r="G12" s="14"/>
       <c r="H12" s="9"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
@@ -1188,14 +1176,14 @@
       <c r="O12" s="10"/>
       <c r="P12" s="11"/>
     </row>
-    <row r="13" spans="1:16" ht="88.5" customHeight="1">
-      <c r="A13" s="98"/>
-      <c r="B13" s="97"/>
+    <row r="13" spans="1:16" ht="79.5" customHeight="1">
+      <c r="A13" s="6"/>
+      <c r="B13" s="2"/>
       <c r="C13" s="7"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="14"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="7"/>
       <c r="H13" s="9"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
@@ -1206,15 +1194,15 @@
       <c r="O13" s="10"/>
       <c r="P13" s="11"/>
     </row>
-    <row r="14" spans="1:16" ht="98.25" customHeight="1">
+    <row r="14" spans="1:16" ht="118.5" customHeight="1">
       <c r="A14" s="6"/>
       <c r="B14" s="2"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="13"/>
       <c r="G14" s="14"/>
-      <c r="H14" s="9"/>
+      <c r="H14" s="13"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
@@ -1224,14 +1212,14 @@
       <c r="O14" s="10"/>
       <c r="P14" s="11"/>
     </row>
-    <row r="15" spans="1:16" ht="79.5" customHeight="1">
+    <row r="15" spans="1:16" ht="72" customHeight="1">
       <c r="A15" s="6"/>
       <c r="B15" s="2"/>
       <c r="C15" s="7"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="14"/>
       <c r="H15" s="9"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
@@ -1242,15 +1230,15 @@
       <c r="O15" s="10"/>
       <c r="P15" s="11"/>
     </row>
-    <row r="16" spans="1:16" ht="118.5" customHeight="1">
+    <row r="16" spans="1:16" ht="80.25" customHeight="1">
       <c r="A16" s="6"/>
       <c r="B16" s="2"/>
       <c r="C16" s="7"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="15"/>
       <c r="G16" s="14"/>
-      <c r="H16" s="13"/>
+      <c r="H16" s="9"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
@@ -1260,15 +1248,15 @@
       <c r="O16" s="10"/>
       <c r="P16" s="11"/>
     </row>
-    <row r="17" spans="1:16" ht="72" customHeight="1">
+    <row r="17" spans="1:16" ht="110.25" customHeight="1">
       <c r="A17" s="6"/>
       <c r="B17" s="2"/>
       <c r="C17" s="7"/>
       <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="15"/>
       <c r="G17" s="14"/>
-      <c r="H17" s="9"/>
+      <c r="H17" s="13"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
@@ -1278,15 +1266,14 @@
       <c r="O17" s="10"/>
       <c r="P17" s="11"/>
     </row>
-    <row r="18" spans="1:16" ht="80.25" customHeight="1">
-      <c r="A18" s="6"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="13"/>
+    <row r="18" spans="1:16" ht="30.75" customHeight="1">
+      <c r="A18" s="16"/>
+      <c r="B18" s="15"/>
+      <c r="D18" s="10"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="9"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
@@ -1296,15 +1283,14 @@
       <c r="O18" s="10"/>
       <c r="P18" s="11"/>
     </row>
-    <row r="19" spans="1:16" ht="110.25" customHeight="1">
-      <c r="A19" s="6"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="13"/>
+    <row r="19" spans="1:16" ht="27" customHeight="1">
+      <c r="A19" s="16"/>
+      <c r="B19" s="15"/>
+      <c r="D19" s="10"/>
       <c r="E19" s="10"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="13"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
@@ -1314,7 +1300,7 @@
       <c r="O19" s="10"/>
       <c r="P19" s="11"/>
     </row>
-    <row r="20" spans="1:16" ht="30.75" customHeight="1">
+    <row r="20" spans="1:16" ht="28.5" customHeight="1">
       <c r="A20" s="16"/>
       <c r="B20" s="15"/>
       <c r="D20" s="10"/>
@@ -1331,7 +1317,7 @@
       <c r="O20" s="10"/>
       <c r="P20" s="11"/>
     </row>
-    <row r="21" spans="1:16" ht="27" customHeight="1">
+    <row r="21" spans="1:16" ht="33.75" customHeight="1">
       <c r="A21" s="16"/>
       <c r="B21" s="15"/>
       <c r="D21" s="10"/>
@@ -1348,7 +1334,7 @@
       <c r="O21" s="10"/>
       <c r="P21" s="11"/>
     </row>
-    <row r="22" spans="1:16" ht="28.5" customHeight="1">
+    <row r="22" spans="1:16" ht="30.75" customHeight="1">
       <c r="A22" s="16"/>
       <c r="B22" s="15"/>
       <c r="D22" s="10"/>
@@ -1365,9 +1351,9 @@
       <c r="O22" s="10"/>
       <c r="P22" s="11"/>
     </row>
-    <row r="23" spans="1:16" ht="33.75" customHeight="1">
-      <c r="A23" s="16"/>
-      <c r="B23" s="15"/>
+    <row r="23" spans="1:16" ht="30" customHeight="1">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
@@ -1382,9 +1368,9 @@
       <c r="O23" s="10"/>
       <c r="P23" s="11"/>
     </row>
-    <row r="24" spans="1:16" ht="30.75" customHeight="1">
-      <c r="A24" s="16"/>
-      <c r="B24" s="15"/>
+    <row r="24" spans="1:16" ht="30" customHeight="1">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
@@ -1399,9 +1385,9 @@
       <c r="O24" s="10"/>
       <c r="P24" s="11"/>
     </row>
-    <row r="25" spans="1:16" ht="30" customHeight="1">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
+    <row r="25" spans="1:16" ht="25.5" customHeight="1">
+      <c r="A25" s="16"/>
+      <c r="B25" s="15"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
@@ -1416,9 +1402,9 @@
       <c r="O25" s="10"/>
       <c r="P25" s="11"/>
     </row>
-    <row r="26" spans="1:16" ht="30" customHeight="1">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
+    <row r="26" spans="1:16" ht="27" customHeight="1">
+      <c r="A26" s="16"/>
+      <c r="B26" s="15"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
@@ -1433,9 +1419,9 @@
       <c r="O26" s="10"/>
       <c r="P26" s="11"/>
     </row>
-    <row r="27" spans="1:16" ht="25.5" customHeight="1">
+    <row r="27" spans="1:16" ht="26.25" customHeight="1">
       <c r="A27" s="16"/>
-      <c r="B27" s="15"/>
+      <c r="B27" s="10"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
@@ -1450,9 +1436,9 @@
       <c r="O27" s="10"/>
       <c r="P27" s="11"/>
     </row>
-    <row r="28" spans="1:16" ht="27" customHeight="1">
-      <c r="A28" s="16"/>
-      <c r="B28" s="15"/>
+    <row r="28" spans="1:16">
+      <c r="A28" s="18"/>
+      <c r="B28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
@@ -1467,8 +1453,8 @@
       <c r="O28" s="10"/>
       <c r="P28" s="11"/>
     </row>
-    <row r="29" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A29" s="16"/>
+    <row r="29" spans="1:16">
+      <c r="A29" s="18"/>
       <c r="B29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
@@ -1569,57 +1555,23 @@
       <c r="O34" s="10"/>
       <c r="P34" s="11"/>
     </row>
-    <row r="35" spans="1:16">
-      <c r="A35" s="18"/>
-      <c r="B35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="11"/>
-    </row>
-    <row r="36" spans="1:16">
-      <c r="A36" s="18"/>
-      <c r="B36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="11"/>
-    </row>
-    <row r="37" spans="1:16" ht="18.75" thickBot="1">
-      <c r="A37" s="19"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="22"/>
+    <row r="35" spans="1:16" ht="18.75" thickBot="1">
+      <c r="A35" s="19"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/策划文档/版本进度/bug收集.xlsx
+++ b/策划文档/版本进度/bug收集.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,10 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>寻敌范围bug</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>死亡后再次挑战副本或者选择其他副本，打完第一章图无法传送至下一章地图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -58,7 +54,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>副本界面和技能界面适配满屏，不要漏出后面的背景</t>
+    <t>去掉格挡cd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相机特效（飘雪的特效）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害漂字改为字体本来的颜色，漂字缩小一些</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_xueshan_01</t>
+  </si>
+  <si>
+    <t>副本界面和技能界面适配满屏，不要漏出后面的背景。补拉高背景的资源图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>映射pvp副本后面两个难度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算界面UI底板增加，按照效果图调整下死和赢的位置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -919,11 +938,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P35"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -984,57 +1003,57 @@
       <c r="O2" s="10"/>
       <c r="P2" s="11"/>
     </row>
-    <row r="3" spans="1:16" ht="93" customHeight="1">
-      <c r="A3" s="64" t="s">
+    <row r="3" spans="1:16" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="A3" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
       <c r="D3" s="100"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="11"/>
-    </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" ht="51" customHeight="1">
-      <c r="A4" s="46" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="5"/>
+    </row>
+    <row r="4" spans="1:16" ht="54.75" customHeight="1">
+      <c r="A4" s="98" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="C4" s="99"/>
       <c r="D4" s="100"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="5"/>
-    </row>
-    <row r="5" spans="1:16" ht="54.75" customHeight="1">
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="11"/>
+    </row>
+    <row r="5" spans="1:16" ht="49.5" customHeight="1">
       <c r="A5" s="98" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
       <c r="G5" s="14"/>
-      <c r="H5" s="10"/>
+      <c r="H5" s="15"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
@@ -1044,17 +1063,17 @@
       <c r="O5" s="10"/>
       <c r="P5" s="11"/>
     </row>
-    <row r="6" spans="1:16" ht="49.5" customHeight="1">
-      <c r="A6" s="98" t="s">
+    <row r="6" spans="1:16" ht="33.75" customHeight="1">
+      <c r="A6" s="96" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="15"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
@@ -1064,13 +1083,13 @@
       <c r="O6" s="10"/>
       <c r="P6" s="11"/>
     </row>
-    <row r="7" spans="1:16" ht="33.75" customHeight="1">
+    <row r="7" spans="1:16" ht="43.5" customHeight="1">
       <c r="A7" s="96" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="100"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
@@ -1084,17 +1103,19 @@
       <c r="O7" s="10"/>
       <c r="P7" s="11"/>
     </row>
-    <row r="8" spans="1:16" ht="43.5" customHeight="1">
-      <c r="A8" s="96" t="s">
+    <row r="8" spans="1:16" ht="82.5" customHeight="1">
+      <c r="A8" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="99" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="100"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="9"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
@@ -1104,12 +1125,14 @@
       <c r="O8" s="10"/>
       <c r="P8" s="11"/>
     </row>
-    <row r="9" spans="1:16" ht="82.5" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
+    <row r="9" spans="1:16" ht="90.75" customHeight="1">
+      <c r="A9" s="98" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="97"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="8"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="13"/>
       <c r="F9" s="9"/>
       <c r="G9" s="7"/>
       <c r="H9" s="9"/>
@@ -1122,14 +1145,16 @@
       <c r="O9" s="10"/>
       <c r="P9" s="11"/>
     </row>
-    <row r="10" spans="1:16" ht="90.75" customHeight="1">
-      <c r="A10" s="98"/>
+    <row r="10" spans="1:16" ht="88.5" customHeight="1">
+      <c r="A10" s="98" t="s">
+        <v>11</v>
+      </c>
       <c r="B10" s="97"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="105"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="13"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="7"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="14"/>
       <c r="H10" s="9"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
@@ -1140,13 +1165,15 @@
       <c r="O10" s="10"/>
       <c r="P10" s="11"/>
     </row>
-    <row r="11" spans="1:16" ht="88.5" customHeight="1">
-      <c r="A11" s="98"/>
-      <c r="B11" s="97"/>
+    <row r="11" spans="1:16" ht="98.25" customHeight="1">
+      <c r="A11" s="98" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2"/>
       <c r="C11" s="7"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
+      <c r="F11" s="9"/>
       <c r="G11" s="14"/>
       <c r="H11" s="9"/>
       <c r="I11" s="10"/>
@@ -1158,14 +1185,16 @@
       <c r="O11" s="10"/>
       <c r="P11" s="11"/>
     </row>
-    <row r="12" spans="1:16" ht="98.25" customHeight="1">
-      <c r="A12" s="6"/>
+    <row r="12" spans="1:16" ht="79.5" customHeight="1">
+      <c r="A12" s="98" t="s">
+        <v>15</v>
+      </c>
       <c r="B12" s="2"/>
       <c r="C12" s="7"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="14"/>
+      <c r="G12" s="7"/>
       <c r="H12" s="9"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
@@ -1176,15 +1205,15 @@
       <c r="O12" s="10"/>
       <c r="P12" s="11"/>
     </row>
-    <row r="13" spans="1:16" ht="79.5" customHeight="1">
+    <row r="13" spans="1:16" ht="118.5" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="2"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="13"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
@@ -1194,15 +1223,15 @@
       <c r="O13" s="10"/>
       <c r="P13" s="11"/>
     </row>
-    <row r="14" spans="1:16" ht="118.5" customHeight="1">
+    <row r="14" spans="1:16" ht="72" customHeight="1">
       <c r="A14" s="6"/>
       <c r="B14" s="2"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="14"/>
-      <c r="H14" s="13"/>
+      <c r="H14" s="9"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
@@ -1212,13 +1241,13 @@
       <c r="O14" s="10"/>
       <c r="P14" s="11"/>
     </row>
-    <row r="15" spans="1:16" ht="72" customHeight="1">
+    <row r="15" spans="1:16" ht="80.25" customHeight="1">
       <c r="A15" s="6"/>
       <c r="B15" s="2"/>
       <c r="C15" s="7"/>
       <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="15"/>
       <c r="G15" s="14"/>
       <c r="H15" s="9"/>
       <c r="I15" s="10"/>
@@ -1230,7 +1259,7 @@
       <c r="O15" s="10"/>
       <c r="P15" s="11"/>
     </row>
-    <row r="16" spans="1:16" ht="80.25" customHeight="1">
+    <row r="16" spans="1:16" ht="110.25" customHeight="1">
       <c r="A16" s="6"/>
       <c r="B16" s="2"/>
       <c r="C16" s="7"/>
@@ -1238,7 +1267,7 @@
       <c r="E16" s="10"/>
       <c r="F16" s="15"/>
       <c r="G16" s="14"/>
-      <c r="H16" s="9"/>
+      <c r="H16" s="13"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
@@ -1248,15 +1277,14 @@
       <c r="O16" s="10"/>
       <c r="P16" s="11"/>
     </row>
-    <row r="17" spans="1:16" ht="110.25" customHeight="1">
-      <c r="A17" s="6"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="13"/>
+    <row r="17" spans="1:16" ht="30.75" customHeight="1">
+      <c r="A17" s="16"/>
+      <c r="B17" s="15"/>
+      <c r="D17" s="10"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="13"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
@@ -1266,7 +1294,7 @@
       <c r="O17" s="10"/>
       <c r="P17" s="11"/>
     </row>
-    <row r="18" spans="1:16" ht="30.75" customHeight="1">
+    <row r="18" spans="1:16" ht="27" customHeight="1">
       <c r="A18" s="16"/>
       <c r="B18" s="15"/>
       <c r="D18" s="10"/>
@@ -1283,7 +1311,7 @@
       <c r="O18" s="10"/>
       <c r="P18" s="11"/>
     </row>
-    <row r="19" spans="1:16" ht="27" customHeight="1">
+    <row r="19" spans="1:16" ht="28.5" customHeight="1">
       <c r="A19" s="16"/>
       <c r="B19" s="15"/>
       <c r="D19" s="10"/>
@@ -1300,7 +1328,7 @@
       <c r="O19" s="10"/>
       <c r="P19" s="11"/>
     </row>
-    <row r="20" spans="1:16" ht="28.5" customHeight="1">
+    <row r="20" spans="1:16" ht="33.75" customHeight="1">
       <c r="A20" s="16"/>
       <c r="B20" s="15"/>
       <c r="D20" s="10"/>
@@ -1317,7 +1345,7 @@
       <c r="O20" s="10"/>
       <c r="P20" s="11"/>
     </row>
-    <row r="21" spans="1:16" ht="33.75" customHeight="1">
+    <row r="21" spans="1:16" ht="30.75" customHeight="1">
       <c r="A21" s="16"/>
       <c r="B21" s="15"/>
       <c r="D21" s="10"/>
@@ -1334,9 +1362,9 @@
       <c r="O21" s="10"/>
       <c r="P21" s="11"/>
     </row>
-    <row r="22" spans="1:16" ht="30.75" customHeight="1">
-      <c r="A22" s="16"/>
-      <c r="B22" s="15"/>
+    <row r="22" spans="1:16" ht="30" customHeight="1">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
@@ -1368,9 +1396,9 @@
       <c r="O23" s="10"/>
       <c r="P23" s="11"/>
     </row>
-    <row r="24" spans="1:16" ht="30" customHeight="1">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
+    <row r="24" spans="1:16" ht="25.5" customHeight="1">
+      <c r="A24" s="16"/>
+      <c r="B24" s="15"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
@@ -1385,7 +1413,7 @@
       <c r="O24" s="10"/>
       <c r="P24" s="11"/>
     </row>
-    <row r="25" spans="1:16" ht="25.5" customHeight="1">
+    <row r="25" spans="1:16" ht="27" customHeight="1">
       <c r="A25" s="16"/>
       <c r="B25" s="15"/>
       <c r="D25" s="10"/>
@@ -1402,9 +1430,9 @@
       <c r="O25" s="10"/>
       <c r="P25" s="11"/>
     </row>
-    <row r="26" spans="1:16" ht="27" customHeight="1">
+    <row r="26" spans="1:16" ht="26.25" customHeight="1">
       <c r="A26" s="16"/>
-      <c r="B26" s="15"/>
+      <c r="B26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
@@ -1419,8 +1447,8 @@
       <c r="O26" s="10"/>
       <c r="P26" s="11"/>
     </row>
-    <row r="27" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A27" s="16"/>
+    <row r="27" spans="1:16">
+      <c r="A27" s="18"/>
       <c r="B27" s="10"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
@@ -1538,40 +1566,23 @@
       <c r="O33" s="10"/>
       <c r="P33" s="11"/>
     </row>
-    <row r="34" spans="1:16">
-      <c r="A34" s="18"/>
-      <c r="B34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="11"/>
-    </row>
-    <row r="35" spans="1:16" ht="18.75" thickBot="1">
-      <c r="A35" s="19"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="20"/>
-      <c r="P35" s="22"/>
+    <row r="34" spans="1:16" ht="18.75" thickBot="1">
+      <c r="A34" s="19"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/策划文档/版本进度/bug收集.xlsx
+++ b/策划文档/版本进度/bug收集.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,6 +78,10 @@
   </si>
   <si>
     <t>结算界面UI底板增加，按照效果图调整下死和赢的位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物的攻击经常会造成主角多段受击，但是动编没有问题，在测试场景也没有问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -942,7 +946,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1206,7 +1210,9 @@
       <c r="P12" s="11"/>
     </row>
     <row r="13" spans="1:16" ht="118.5" customHeight="1">
-      <c r="A13" s="6"/>
+      <c r="A13" s="98" t="s">
+        <v>16</v>
+      </c>
       <c r="B13" s="2"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9"/>

--- a/策划文档/版本进度/bug收集.xlsx
+++ b/策划文档/版本进度/bug收集.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,6 +82,10 @@
   </si>
   <si>
     <t>怪物的攻击经常会造成主角多段受击，但是动编没有问题，在测试场景也没有问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连击数显示下面增加底板</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -942,11 +946,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1209,35 +1213,37 @@
       <c r="O12" s="10"/>
       <c r="P12" s="11"/>
     </row>
-    <row r="13" spans="1:16" ht="118.5" customHeight="1">
+    <row r="13" spans="1:16" s="92" customFormat="1" ht="79.5" customHeight="1">
       <c r="A13" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="97"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="101"/>
+      <c r="J13" s="101"/>
+      <c r="K13" s="101"/>
+      <c r="L13" s="101"/>
+      <c r="M13" s="101"/>
+      <c r="N13" s="101"/>
+      <c r="O13" s="101"/>
+      <c r="P13" s="102"/>
+    </row>
+    <row r="14" spans="1:16" ht="118.5" customHeight="1">
+      <c r="A14" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="11"/>
-    </row>
-    <row r="14" spans="1:16" ht="72" customHeight="1">
-      <c r="A14" s="6"/>
       <c r="B14" s="2"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
       <c r="F14" s="13"/>
       <c r="G14" s="14"/>
-      <c r="H14" s="9"/>
+      <c r="H14" s="13"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
@@ -1247,13 +1253,13 @@
       <c r="O14" s="10"/>
       <c r="P14" s="11"/>
     </row>
-    <row r="15" spans="1:16" ht="80.25" customHeight="1">
+    <row r="15" spans="1:16" ht="72" customHeight="1">
       <c r="A15" s="6"/>
       <c r="B15" s="2"/>
       <c r="C15" s="7"/>
       <c r="D15" s="13"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="15"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
       <c r="G15" s="14"/>
       <c r="H15" s="9"/>
       <c r="I15" s="10"/>
@@ -1265,7 +1271,7 @@
       <c r="O15" s="10"/>
       <c r="P15" s="11"/>
     </row>
-    <row r="16" spans="1:16" ht="110.25" customHeight="1">
+    <row r="16" spans="1:16" ht="80.25" customHeight="1">
       <c r="A16" s="6"/>
       <c r="B16" s="2"/>
       <c r="C16" s="7"/>
@@ -1273,7 +1279,7 @@
       <c r="E16" s="10"/>
       <c r="F16" s="15"/>
       <c r="G16" s="14"/>
-      <c r="H16" s="13"/>
+      <c r="H16" s="9"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
@@ -1283,14 +1289,15 @@
       <c r="O16" s="10"/>
       <c r="P16" s="11"/>
     </row>
-    <row r="17" spans="1:16" ht="30.75" customHeight="1">
-      <c r="A17" s="16"/>
-      <c r="B17" s="15"/>
-      <c r="D17" s="10"/>
+    <row r="17" spans="1:16" ht="110.25" customHeight="1">
+      <c r="A17" s="6"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="13"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="13"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
@@ -1300,7 +1307,7 @@
       <c r="O17" s="10"/>
       <c r="P17" s="11"/>
     </row>
-    <row r="18" spans="1:16" ht="27" customHeight="1">
+    <row r="18" spans="1:16" ht="30.75" customHeight="1">
       <c r="A18" s="16"/>
       <c r="B18" s="15"/>
       <c r="D18" s="10"/>
@@ -1317,7 +1324,7 @@
       <c r="O18" s="10"/>
       <c r="P18" s="11"/>
     </row>
-    <row r="19" spans="1:16" ht="28.5" customHeight="1">
+    <row r="19" spans="1:16" ht="27" customHeight="1">
       <c r="A19" s="16"/>
       <c r="B19" s="15"/>
       <c r="D19" s="10"/>
@@ -1334,7 +1341,7 @@
       <c r="O19" s="10"/>
       <c r="P19" s="11"/>
     </row>
-    <row r="20" spans="1:16" ht="33.75" customHeight="1">
+    <row r="20" spans="1:16" ht="28.5" customHeight="1">
       <c r="A20" s="16"/>
       <c r="B20" s="15"/>
       <c r="D20" s="10"/>
@@ -1351,7 +1358,7 @@
       <c r="O20" s="10"/>
       <c r="P20" s="11"/>
     </row>
-    <row r="21" spans="1:16" ht="30.75" customHeight="1">
+    <row r="21" spans="1:16" ht="33.75" customHeight="1">
       <c r="A21" s="16"/>
       <c r="B21" s="15"/>
       <c r="D21" s="10"/>
@@ -1368,9 +1375,9 @@
       <c r="O21" s="10"/>
       <c r="P21" s="11"/>
     </row>
-    <row r="22" spans="1:16" ht="30" customHeight="1">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
+    <row r="22" spans="1:16" ht="30.75" customHeight="1">
+      <c r="A22" s="16"/>
+      <c r="B22" s="15"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
@@ -1402,9 +1409,9 @@
       <c r="O23" s="10"/>
       <c r="P23" s="11"/>
     </row>
-    <row r="24" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A24" s="16"/>
-      <c r="B24" s="15"/>
+    <row r="24" spans="1:16" ht="30" customHeight="1">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
@@ -1419,7 +1426,7 @@
       <c r="O24" s="10"/>
       <c r="P24" s="11"/>
     </row>
-    <row r="25" spans="1:16" ht="27" customHeight="1">
+    <row r="25" spans="1:16" ht="25.5" customHeight="1">
       <c r="A25" s="16"/>
       <c r="B25" s="15"/>
       <c r="D25" s="10"/>
@@ -1436,9 +1443,9 @@
       <c r="O25" s="10"/>
       <c r="P25" s="11"/>
     </row>
-    <row r="26" spans="1:16" ht="26.25" customHeight="1">
+    <row r="26" spans="1:16" ht="27" customHeight="1">
       <c r="A26" s="16"/>
-      <c r="B26" s="10"/>
+      <c r="B26" s="15"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
@@ -1453,8 +1460,8 @@
       <c r="O26" s="10"/>
       <c r="P26" s="11"/>
     </row>
-    <row r="27" spans="1:16">
-      <c r="A27" s="18"/>
+    <row r="27" spans="1:16" ht="26.25" customHeight="1">
+      <c r="A27" s="16"/>
       <c r="B27" s="10"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
@@ -1572,23 +1579,40 @@
       <c r="O33" s="10"/>
       <c r="P33" s="11"/>
     </row>
-    <row r="34" spans="1:16" ht="18.75" thickBot="1">
-      <c r="A34" s="19"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="22"/>
+    <row r="34" spans="1:16">
+      <c r="A34" s="18"/>
+      <c r="B34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="11"/>
+    </row>
+    <row r="35" spans="1:16" ht="18.75" thickBot="1">
+      <c r="A35" s="19"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/策划文档/版本进度/bug收集.xlsx
+++ b/策划文档/版本进度/bug收集.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="3" sheetId="1" r:id="rId1"/>
     <sheet name="2" sheetId="2" r:id="rId2"/>
     <sheet name="1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -76,13 +76,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,7 +87,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -102,158 +96,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -278,194 +126,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="23">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -621,251 +283,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1033,57 +453,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1372,18 +745,17 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -1398,7 +770,7 @@
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="51" customHeight="1" spans="1:16">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="51" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1424,7 +796,7 @@
       <c r="O1" s="25"/>
       <c r="P1" s="26"/>
     </row>
-    <row r="2" ht="45" customHeight="1" spans="1:16">
+    <row r="2" spans="1:16" ht="45" customHeight="1">
       <c r="A2" s="20" t="s">
         <v>4</v>
       </c>
@@ -1444,7 +816,7 @@
       <c r="O2" s="18"/>
       <c r="P2" s="29"/>
     </row>
-    <row r="3" s="31" customFormat="1" ht="51" customHeight="1" spans="1:16">
+    <row r="3" spans="1:16" s="31" customFormat="1" ht="51" customHeight="1">
       <c r="A3" s="33" t="s">
         <v>5</v>
       </c>
@@ -1464,7 +836,7 @@
       <c r="O3" s="45"/>
       <c r="P3" s="46"/>
     </row>
-    <row r="4" ht="54.75" customHeight="1" spans="1:16">
+    <row r="4" spans="1:16" ht="54.75" customHeight="1">
       <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
@@ -1484,7 +856,7 @@
       <c r="O4" s="18"/>
       <c r="P4" s="29"/>
     </row>
-    <row r="5" s="32" customFormat="1" ht="49.5" customHeight="1" spans="1:16">
+    <row r="5" spans="1:16" s="32" customFormat="1" ht="49.5" customHeight="1">
       <c r="A5" s="37" t="s">
         <v>7</v>
       </c>
@@ -1504,7 +876,7 @@
       <c r="O5" s="42"/>
       <c r="P5" s="47"/>
     </row>
-    <row r="6" s="32" customFormat="1" ht="33.75" customHeight="1" spans="1:16">
+    <row r="6" spans="1:16" s="32" customFormat="1" ht="33.75" customHeight="1">
       <c r="A6" s="41" t="s">
         <v>8</v>
       </c>
@@ -1524,7 +896,7 @@
       <c r="O6" s="42"/>
       <c r="P6" s="47"/>
     </row>
-    <row r="7" s="32" customFormat="1" ht="43.5" customHeight="1" spans="1:16">
+    <row r="7" spans="1:16" s="32" customFormat="1" ht="43.5" customHeight="1">
       <c r="A7" s="41" t="s">
         <v>9</v>
       </c>
@@ -1544,7 +916,7 @@
       <c r="O7" s="42"/>
       <c r="P7" s="47"/>
     </row>
-    <row r="8" s="32" customFormat="1" ht="82.5" customHeight="1" spans="1:16">
+    <row r="8" spans="1:16" s="32" customFormat="1" ht="82.5" customHeight="1">
       <c r="A8" s="37" t="s">
         <v>10</v>
       </c>
@@ -1566,7 +938,7 @@
       <c r="O8" s="42"/>
       <c r="P8" s="47"/>
     </row>
-    <row r="9" s="32" customFormat="1" ht="90.75" customHeight="1" spans="1:16">
+    <row r="9" spans="1:16" s="32" customFormat="1" ht="90.75" customHeight="1">
       <c r="A9" s="37" t="s">
         <v>12</v>
       </c>
@@ -1586,7 +958,7 @@
       <c r="O9" s="42"/>
       <c r="P9" s="47"/>
     </row>
-    <row r="10" s="32" customFormat="1" ht="88.5" customHeight="1" spans="1:16">
+    <row r="10" spans="1:16" s="32" customFormat="1" ht="88.5" customHeight="1">
       <c r="A10" s="37" t="s">
         <v>13</v>
       </c>
@@ -1606,7 +978,7 @@
       <c r="O10" s="42"/>
       <c r="P10" s="47"/>
     </row>
-    <row r="11" s="32" customFormat="1" ht="98.25" customHeight="1" spans="1:16">
+    <row r="11" spans="1:16" s="32" customFormat="1" ht="98.25" customHeight="1">
       <c r="A11" s="37" t="s">
         <v>14</v>
       </c>
@@ -1626,7 +998,7 @@
       <c r="O11" s="42"/>
       <c r="P11" s="47"/>
     </row>
-    <row r="12" s="32" customFormat="1" ht="79.5" customHeight="1" spans="1:16">
+    <row r="12" spans="1:16" s="32" customFormat="1" ht="79.5" customHeight="1">
       <c r="A12" s="37" t="s">
         <v>15</v>
       </c>
@@ -1646,7 +1018,7 @@
       <c r="O12" s="42"/>
       <c r="P12" s="47"/>
     </row>
-    <row r="13" s="32" customFormat="1" ht="79.5" customHeight="1" spans="1:16">
+    <row r="13" spans="1:16" s="32" customFormat="1" ht="79.5" customHeight="1">
       <c r="A13" s="37" t="s">
         <v>16</v>
       </c>
@@ -1666,7 +1038,7 @@
       <c r="O13" s="42"/>
       <c r="P13" s="47"/>
     </row>
-    <row r="14" s="32" customFormat="1" ht="118.5" customHeight="1" spans="1:16">
+    <row r="14" spans="1:16" s="32" customFormat="1" ht="118.5" customHeight="1">
       <c r="A14" s="37" t="s">
         <v>17</v>
       </c>
@@ -1686,7 +1058,7 @@
       <c r="O14" s="42"/>
       <c r="P14" s="47"/>
     </row>
-    <row r="15" ht="72" customHeight="1" spans="1:16">
+    <row r="15" spans="1:16" ht="72" customHeight="1">
       <c r="A15" s="11"/>
       <c r="B15" s="9"/>
       <c r="C15" s="12"/>
@@ -1704,7 +1076,7 @@
       <c r="O15" s="18"/>
       <c r="P15" s="29"/>
     </row>
-    <row r="16" ht="80.25" customHeight="1" spans="1:16">
+    <row r="16" spans="1:16" ht="80.25" customHeight="1">
       <c r="A16" s="11"/>
       <c r="B16" s="9"/>
       <c r="C16" s="12"/>
@@ -1722,7 +1094,7 @@
       <c r="O16" s="18"/>
       <c r="P16" s="29"/>
     </row>
-    <row r="17" ht="110.25" customHeight="1" spans="1:16">
+    <row r="17" spans="1:16" ht="110.25" customHeight="1">
       <c r="A17" s="11"/>
       <c r="B17" s="9"/>
       <c r="C17" s="12"/>
@@ -1740,7 +1112,7 @@
       <c r="O17" s="18"/>
       <c r="P17" s="29"/>
     </row>
-    <row r="18" ht="30.75" customHeight="1" spans="1:16">
+    <row r="18" spans="1:16" ht="30.75" customHeight="1">
       <c r="A18" s="20"/>
       <c r="B18" s="19"/>
       <c r="D18" s="18"/>
@@ -1757,7 +1129,7 @@
       <c r="O18" s="18"/>
       <c r="P18" s="29"/>
     </row>
-    <row r="19" ht="27" customHeight="1" spans="1:16">
+    <row r="19" spans="1:16" ht="27" customHeight="1">
       <c r="A19" s="20"/>
       <c r="B19" s="19"/>
       <c r="D19" s="18"/>
@@ -1774,7 +1146,7 @@
       <c r="O19" s="18"/>
       <c r="P19" s="29"/>
     </row>
-    <row r="20" ht="28.5" customHeight="1" spans="1:16">
+    <row r="20" spans="1:16" ht="28.5" customHeight="1">
       <c r="A20" s="20"/>
       <c r="B20" s="19"/>
       <c r="D20" s="18"/>
@@ -1791,7 +1163,7 @@
       <c r="O20" s="18"/>
       <c r="P20" s="29"/>
     </row>
-    <row r="21" ht="33.75" customHeight="1" spans="1:16">
+    <row r="21" spans="1:16" ht="33.75" customHeight="1">
       <c r="A21" s="20"/>
       <c r="B21" s="19"/>
       <c r="D21" s="18"/>
@@ -1808,7 +1180,7 @@
       <c r="O21" s="18"/>
       <c r="P21" s="29"/>
     </row>
-    <row r="22" ht="30.75" customHeight="1" spans="1:16">
+    <row r="22" spans="1:16" ht="30.75" customHeight="1">
       <c r="A22" s="20"/>
       <c r="B22" s="19"/>
       <c r="D22" s="18"/>
@@ -1825,7 +1197,7 @@
       <c r="O22" s="18"/>
       <c r="P22" s="29"/>
     </row>
-    <row r="23" ht="30" customHeight="1" spans="1:16">
+    <row r="23" spans="1:16" ht="30" customHeight="1">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="D23" s="18"/>
@@ -1842,7 +1214,7 @@
       <c r="O23" s="18"/>
       <c r="P23" s="29"/>
     </row>
-    <row r="24" ht="30" customHeight="1" spans="1:16">
+    <row r="24" spans="1:16" ht="30" customHeight="1">
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
       <c r="D24" s="18"/>
@@ -1859,7 +1231,7 @@
       <c r="O24" s="18"/>
       <c r="P24" s="29"/>
     </row>
-    <row r="25" ht="25.5" customHeight="1" spans="1:16">
+    <row r="25" spans="1:16" ht="25.5" customHeight="1">
       <c r="A25" s="20"/>
       <c r="B25" s="19"/>
       <c r="D25" s="18"/>
@@ -1876,7 +1248,7 @@
       <c r="O25" s="18"/>
       <c r="P25" s="29"/>
     </row>
-    <row r="26" ht="27" customHeight="1" spans="1:16">
+    <row r="26" spans="1:16" ht="27" customHeight="1">
       <c r="A26" s="20"/>
       <c r="B26" s="19"/>
       <c r="D26" s="18"/>
@@ -1893,7 +1265,7 @@
       <c r="O26" s="18"/>
       <c r="P26" s="29"/>
     </row>
-    <row r="27" ht="26.25" customHeight="1" spans="1:16">
+    <row r="27" spans="1:16" ht="26.25" customHeight="1">
       <c r="A27" s="20"/>
       <c r="B27" s="18"/>
       <c r="D27" s="18"/>
@@ -2029,7 +1401,7 @@
       <c r="O34" s="18"/>
       <c r="P34" s="29"/>
     </row>
-    <row r="35" ht="18.75" spans="1:16">
+    <row r="35" spans="1:16">
       <c r="A35" s="22"/>
       <c r="B35" s="23"/>
       <c r="C35" s="24"/>
@@ -2048,15 +1420,14 @@
       <c r="P35" s="30"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -2075,7 +1446,7 @@
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="51" customHeight="1" spans="1:16">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="51" customHeight="1">
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -2093,7 +1464,7 @@
       <c r="O1" s="25"/>
       <c r="P1" s="26"/>
     </row>
-    <row r="2" s="2" customFormat="1" ht="108" customHeight="1" spans="1:16">
+    <row r="2" spans="1:16" s="2" customFormat="1" ht="108" customHeight="1">
       <c r="A2" s="11"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -2111,7 +1482,7 @@
       <c r="O2" s="27"/>
       <c r="P2" s="28"/>
     </row>
-    <row r="3" s="2" customFormat="1" ht="51" customHeight="1" spans="1:16">
+    <row r="3" spans="1:16" s="2" customFormat="1" ht="51" customHeight="1">
       <c r="A3" s="11"/>
       <c r="B3" s="9"/>
       <c r="C3" s="12"/>
@@ -2129,7 +1500,7 @@
       <c r="O3" s="18"/>
       <c r="P3" s="29"/>
     </row>
-    <row r="4" ht="51" customHeight="1" spans="1:16">
+    <row r="4" spans="1:16" ht="51" customHeight="1">
       <c r="A4" s="11"/>
       <c r="B4" s="9"/>
       <c r="C4" s="12"/>
@@ -2147,7 +1518,7 @@
       <c r="O4" s="18"/>
       <c r="P4" s="29"/>
     </row>
-    <row r="5" ht="45" customHeight="1" spans="1:16">
+    <row r="5" spans="1:16" ht="45" customHeight="1">
       <c r="A5" s="20"/>
       <c r="B5" s="9"/>
       <c r="C5" s="12"/>
@@ -2165,7 +1536,7 @@
       <c r="O5" s="18"/>
       <c r="P5" s="29"/>
     </row>
-    <row r="6" ht="93" customHeight="1" spans="1:16">
+    <row r="6" spans="1:16" ht="93" customHeight="1">
       <c r="A6" s="16"/>
       <c r="B6" s="9"/>
       <c r="C6" s="12"/>
@@ -2183,7 +1554,7 @@
       <c r="O6" s="18"/>
       <c r="P6" s="29"/>
     </row>
-    <row r="7" s="2" customFormat="1" ht="51" customHeight="1" spans="1:16">
+    <row r="7" spans="1:16" s="2" customFormat="1" ht="51" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -2201,7 +1572,7 @@
       <c r="O7" s="27"/>
       <c r="P7" s="28"/>
     </row>
-    <row r="8" ht="54.75" customHeight="1" spans="1:16">
+    <row r="8" spans="1:16" ht="54.75" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="9"/>
       <c r="C8" s="12"/>
@@ -2219,7 +1590,7 @@
       <c r="O8" s="18"/>
       <c r="P8" s="29"/>
     </row>
-    <row r="9" ht="49.5" customHeight="1" spans="1:16">
+    <row r="9" spans="1:16" ht="49.5" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="9"/>
       <c r="C9" s="12"/>
@@ -2237,7 +1608,7 @@
       <c r="O9" s="18"/>
       <c r="P9" s="29"/>
     </row>
-    <row r="10" ht="33.75" customHeight="1" spans="1:16">
+    <row r="10" spans="1:16" ht="33.75" customHeight="1">
       <c r="A10" s="20"/>
       <c r="B10" s="9"/>
       <c r="C10" s="12"/>
@@ -2255,7 +1626,7 @@
       <c r="O10" s="18"/>
       <c r="P10" s="29"/>
     </row>
-    <row r="11" ht="43.5" customHeight="1" spans="1:16">
+    <row r="11" spans="1:16" ht="43.5" customHeight="1">
       <c r="A11" s="20"/>
       <c r="B11" s="9"/>
       <c r="C11" s="12"/>
@@ -2273,7 +1644,7 @@
       <c r="O11" s="18"/>
       <c r="P11" s="29"/>
     </row>
-    <row r="12" ht="82.5" customHeight="1" spans="1:16">
+    <row r="12" spans="1:16" ht="82.5" customHeight="1">
       <c r="A12" s="11"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -2291,7 +1662,7 @@
       <c r="O12" s="18"/>
       <c r="P12" s="29"/>
     </row>
-    <row r="13" ht="82.5" customHeight="1" spans="1:16">
+    <row r="13" spans="1:16" ht="82.5" customHeight="1">
       <c r="A13" s="11"/>
       <c r="B13" s="9"/>
       <c r="C13" s="12"/>
@@ -2309,7 +1680,7 @@
       <c r="O13" s="18"/>
       <c r="P13" s="29"/>
     </row>
-    <row r="14" ht="90.75" customHeight="1" spans="1:16">
+    <row r="14" spans="1:16" ht="90.75" customHeight="1">
       <c r="A14" s="11"/>
       <c r="B14" s="9"/>
       <c r="C14" s="12"/>
@@ -2327,7 +1698,7 @@
       <c r="O14" s="18"/>
       <c r="P14" s="29"/>
     </row>
-    <row r="15" ht="88.5" customHeight="1" spans="1:16">
+    <row r="15" spans="1:16" ht="88.5" customHeight="1">
       <c r="A15" s="11"/>
       <c r="B15" s="9"/>
       <c r="C15" s="12"/>
@@ -2345,7 +1716,7 @@
       <c r="O15" s="18"/>
       <c r="P15" s="29"/>
     </row>
-    <row r="16" ht="98.25" customHeight="1" spans="1:16">
+    <row r="16" spans="1:16" ht="98.25" customHeight="1">
       <c r="A16" s="11"/>
       <c r="B16" s="9"/>
       <c r="C16" s="12"/>
@@ -2363,7 +1734,7 @@
       <c r="O16" s="18"/>
       <c r="P16" s="29"/>
     </row>
-    <row r="17" ht="79.5" customHeight="1" spans="1:16">
+    <row r="17" spans="1:16" ht="79.5" customHeight="1">
       <c r="A17" s="11"/>
       <c r="B17" s="9"/>
       <c r="C17" s="12"/>
@@ -2381,7 +1752,7 @@
       <c r="O17" s="18"/>
       <c r="P17" s="29"/>
     </row>
-    <row r="18" ht="118.5" customHeight="1" spans="1:16">
+    <row r="18" spans="1:16" ht="118.5" customHeight="1">
       <c r="A18" s="11"/>
       <c r="B18" s="9"/>
       <c r="C18" s="12"/>
@@ -2399,7 +1770,7 @@
       <c r="O18" s="18"/>
       <c r="P18" s="29"/>
     </row>
-    <row r="19" ht="72" customHeight="1" spans="1:16">
+    <row r="19" spans="1:16" ht="72" customHeight="1">
       <c r="A19" s="11"/>
       <c r="B19" s="9"/>
       <c r="C19" s="12"/>
@@ -2417,7 +1788,7 @@
       <c r="O19" s="18"/>
       <c r="P19" s="29"/>
     </row>
-    <row r="20" ht="80.25" customHeight="1" spans="1:16">
+    <row r="20" spans="1:16" ht="80.25" customHeight="1">
       <c r="A20" s="11"/>
       <c r="B20" s="9"/>
       <c r="C20" s="12"/>
@@ -2435,7 +1806,7 @@
       <c r="O20" s="18"/>
       <c r="P20" s="29"/>
     </row>
-    <row r="21" ht="110.25" customHeight="1" spans="1:16">
+    <row r="21" spans="1:16" ht="110.25" customHeight="1">
       <c r="A21" s="11"/>
       <c r="B21" s="9"/>
       <c r="C21" s="12"/>
@@ -2453,7 +1824,7 @@
       <c r="O21" s="18"/>
       <c r="P21" s="29"/>
     </row>
-    <row r="22" ht="30.75" customHeight="1" spans="1:16">
+    <row r="22" spans="1:16" ht="30.75" customHeight="1">
       <c r="A22" s="20"/>
       <c r="B22" s="19"/>
       <c r="D22" s="18"/>
@@ -2470,7 +1841,7 @@
       <c r="O22" s="18"/>
       <c r="P22" s="29"/>
     </row>
-    <row r="23" ht="27" customHeight="1" spans="1:16">
+    <row r="23" spans="1:16" ht="27" customHeight="1">
       <c r="A23" s="20"/>
       <c r="B23" s="19"/>
       <c r="D23" s="18"/>
@@ -2487,7 +1858,7 @@
       <c r="O23" s="18"/>
       <c r="P23" s="29"/>
     </row>
-    <row r="24" ht="28.5" customHeight="1" spans="1:16">
+    <row r="24" spans="1:16" ht="28.5" customHeight="1">
       <c r="A24" s="20"/>
       <c r="B24" s="19"/>
       <c r="D24" s="18"/>
@@ -2504,7 +1875,7 @@
       <c r="O24" s="18"/>
       <c r="P24" s="29"/>
     </row>
-    <row r="25" ht="33.75" customHeight="1" spans="1:16">
+    <row r="25" spans="1:16" ht="33.75" customHeight="1">
       <c r="A25" s="20"/>
       <c r="B25" s="19"/>
       <c r="D25" s="18"/>
@@ -2521,7 +1892,7 @@
       <c r="O25" s="18"/>
       <c r="P25" s="29"/>
     </row>
-    <row r="26" ht="30.75" customHeight="1" spans="1:16">
+    <row r="26" spans="1:16" ht="30.75" customHeight="1">
       <c r="A26" s="20"/>
       <c r="B26" s="19"/>
       <c r="D26" s="18"/>
@@ -2538,7 +1909,7 @@
       <c r="O26" s="18"/>
       <c r="P26" s="29"/>
     </row>
-    <row r="27" ht="30" customHeight="1" spans="1:16">
+    <row r="27" spans="1:16" ht="30" customHeight="1">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="D27" s="18"/>
@@ -2555,7 +1926,7 @@
       <c r="O27" s="18"/>
       <c r="P27" s="29"/>
     </row>
-    <row r="28" ht="30" customHeight="1" spans="1:16">
+    <row r="28" spans="1:16" ht="30" customHeight="1">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
       <c r="D28" s="18"/>
@@ -2572,7 +1943,7 @@
       <c r="O28" s="18"/>
       <c r="P28" s="29"/>
     </row>
-    <row r="29" ht="25.5" customHeight="1" spans="1:16">
+    <row r="29" spans="1:16" ht="25.5" customHeight="1">
       <c r="A29" s="20"/>
       <c r="B29" s="19"/>
       <c r="D29" s="18"/>
@@ -2589,7 +1960,7 @@
       <c r="O29" s="18"/>
       <c r="P29" s="29"/>
     </row>
-    <row r="30" ht="27" customHeight="1" spans="1:16">
+    <row r="30" spans="1:16" ht="27" customHeight="1">
       <c r="A30" s="20"/>
       <c r="B30" s="19"/>
       <c r="D30" s="18"/>
@@ -2606,7 +1977,7 @@
       <c r="O30" s="18"/>
       <c r="P30" s="29"/>
     </row>
-    <row r="31" ht="26.25" customHeight="1" spans="1:16">
+    <row r="31" spans="1:16" ht="26.25" customHeight="1">
       <c r="A31" s="20"/>
       <c r="B31" s="18"/>
       <c r="D31" s="18"/>
@@ -2742,7 +2113,7 @@
       <c r="O38" s="18"/>
       <c r="P38" s="29"/>
     </row>
-    <row r="39" ht="18.75" spans="1:16">
+    <row r="39" spans="1:16">
       <c r="A39" s="22"/>
       <c r="B39" s="23"/>
       <c r="C39" s="24"/>
@@ -2761,14 +2132,13 @@
       <c r="P39" s="30"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2787,7 +2157,7 @@
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="51" customHeight="1" spans="1:16">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="51" customHeight="1">
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -2805,7 +2175,7 @@
       <c r="O1" s="25"/>
       <c r="P1" s="26"/>
     </row>
-    <row r="2" s="2" customFormat="1" ht="108" customHeight="1" spans="1:16">
+    <row r="2" spans="1:16" s="2" customFormat="1" ht="108" customHeight="1">
       <c r="A2" s="8"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -2823,7 +2193,7 @@
       <c r="O2" s="27"/>
       <c r="P2" s="28"/>
     </row>
-    <row r="3" s="2" customFormat="1" ht="51" customHeight="1" spans="1:16">
+    <row r="3" spans="1:16" s="2" customFormat="1" ht="51" customHeight="1">
       <c r="A3" s="11"/>
       <c r="B3" s="12"/>
       <c r="C3" s="4"/>
@@ -2841,7 +2211,7 @@
       <c r="O3" s="18"/>
       <c r="P3" s="29"/>
     </row>
-    <row r="4" ht="51" customHeight="1" spans="1:16">
+    <row r="4" spans="1:16" ht="51" customHeight="1">
       <c r="A4" s="16"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -2859,7 +2229,7 @@
       <c r="O4" s="18"/>
       <c r="P4" s="29"/>
     </row>
-    <row r="5" ht="45" customHeight="1" spans="1:16">
+    <row r="5" spans="1:16" ht="45" customHeight="1">
       <c r="A5" s="11"/>
       <c r="B5" s="9"/>
       <c r="C5" s="12"/>
@@ -2877,7 +2247,7 @@
       <c r="O5" s="18"/>
       <c r="P5" s="29"/>
     </row>
-    <row r="6" ht="93" customHeight="1" spans="1:16">
+    <row r="6" spans="1:16" ht="93" customHeight="1">
       <c r="A6" s="11"/>
       <c r="B6" s="9"/>
       <c r="C6" s="12"/>
@@ -2895,7 +2265,7 @@
       <c r="O6" s="18"/>
       <c r="P6" s="29"/>
     </row>
-    <row r="7" s="2" customFormat="1" ht="51" customHeight="1" spans="1:16">
+    <row r="7" spans="1:16" s="2" customFormat="1" ht="51" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" s="9"/>
       <c r="C7" s="12"/>
@@ -2913,7 +2283,7 @@
       <c r="O7" s="18"/>
       <c r="P7" s="29"/>
     </row>
-    <row r="8" ht="54.75" customHeight="1" spans="1:16">
+    <row r="8" spans="1:16" ht="54.75" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="9"/>
       <c r="C8" s="12"/>
@@ -2931,7 +2301,7 @@
       <c r="O8" s="18"/>
       <c r="P8" s="29"/>
     </row>
-    <row r="9" s="3" customFormat="1" ht="33.75" customHeight="1" spans="1:16">
+    <row r="9" spans="1:16" ht="33.75" customHeight="1">
       <c r="A9" s="20"/>
       <c r="B9" s="9"/>
       <c r="C9" s="12"/>
@@ -2949,7 +2319,7 @@
       <c r="O9" s="18"/>
       <c r="P9" s="29"/>
     </row>
-    <row r="10" ht="33.75" customHeight="1" spans="1:16">
+    <row r="10" spans="1:16" ht="33.75" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="9"/>
       <c r="C10" s="12"/>
@@ -2967,7 +2337,7 @@
       <c r="O10" s="18"/>
       <c r="P10" s="29"/>
     </row>
-    <row r="11" ht="43.5" customHeight="1" spans="1:16">
+    <row r="11" spans="1:16" ht="43.5" customHeight="1">
       <c r="A11" s="20"/>
       <c r="B11" s="9"/>
       <c r="C11" s="12"/>
@@ -2985,7 +2355,7 @@
       <c r="O11" s="18"/>
       <c r="P11" s="29"/>
     </row>
-    <row r="12" ht="82.5" customHeight="1" spans="1:16">
+    <row r="12" spans="1:16" ht="82.5" customHeight="1">
       <c r="A12" s="11"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -3003,7 +2373,7 @@
       <c r="O12" s="18"/>
       <c r="P12" s="29"/>
     </row>
-    <row r="13" ht="82.5" customHeight="1" spans="1:16">
+    <row r="13" spans="1:16" ht="82.5" customHeight="1">
       <c r="A13" s="11"/>
       <c r="B13" s="9"/>
       <c r="C13" s="12"/>
@@ -3021,7 +2391,7 @@
       <c r="O13" s="18"/>
       <c r="P13" s="29"/>
     </row>
-    <row r="14" ht="90.75" customHeight="1" spans="1:16">
+    <row r="14" spans="1:16" ht="90.75" customHeight="1">
       <c r="A14" s="11"/>
       <c r="B14" s="9"/>
       <c r="C14" s="12"/>
@@ -3039,7 +2409,7 @@
       <c r="O14" s="18"/>
       <c r="P14" s="29"/>
     </row>
-    <row r="15" ht="88.5" customHeight="1" spans="1:16">
+    <row r="15" spans="1:16" ht="88.5" customHeight="1">
       <c r="A15" s="11"/>
       <c r="B15" s="9"/>
       <c r="C15" s="12"/>
@@ -3057,7 +2427,7 @@
       <c r="O15" s="18"/>
       <c r="P15" s="29"/>
     </row>
-    <row r="16" ht="98.25" customHeight="1" spans="1:16">
+    <row r="16" spans="1:16" ht="98.25" customHeight="1">
       <c r="A16" s="11"/>
       <c r="B16" s="9"/>
       <c r="C16" s="12"/>
@@ -3075,7 +2445,7 @@
       <c r="O16" s="18"/>
       <c r="P16" s="29"/>
     </row>
-    <row r="17" ht="79.5" customHeight="1" spans="1:16">
+    <row r="17" spans="1:16" ht="79.5" customHeight="1">
       <c r="A17" s="11"/>
       <c r="B17" s="9"/>
       <c r="C17" s="12"/>
@@ -3093,7 +2463,7 @@
       <c r="O17" s="18"/>
       <c r="P17" s="29"/>
     </row>
-    <row r="18" ht="118.5" customHeight="1" spans="1:16">
+    <row r="18" spans="1:16" ht="118.5" customHeight="1">
       <c r="A18" s="11"/>
       <c r="B18" s="9"/>
       <c r="C18" s="12"/>
@@ -3111,7 +2481,7 @@
       <c r="O18" s="18"/>
       <c r="P18" s="29"/>
     </row>
-    <row r="19" ht="72" customHeight="1" spans="1:16">
+    <row r="19" spans="1:16" ht="72" customHeight="1">
       <c r="A19" s="11"/>
       <c r="B19" s="9"/>
       <c r="C19" s="12"/>
@@ -3129,7 +2499,7 @@
       <c r="O19" s="18"/>
       <c r="P19" s="29"/>
     </row>
-    <row r="20" ht="80.25" customHeight="1" spans="1:16">
+    <row r="20" spans="1:16" ht="80.25" customHeight="1">
       <c r="A20" s="11"/>
       <c r="B20" s="9"/>
       <c r="C20" s="12"/>
@@ -3147,7 +2517,7 @@
       <c r="O20" s="18"/>
       <c r="P20" s="29"/>
     </row>
-    <row r="21" ht="110.25" customHeight="1" spans="1:16">
+    <row r="21" spans="1:16" ht="110.25" customHeight="1">
       <c r="A21" s="11"/>
       <c r="B21" s="9"/>
       <c r="C21" s="12"/>
@@ -3165,7 +2535,7 @@
       <c r="O21" s="18"/>
       <c r="P21" s="29"/>
     </row>
-    <row r="22" ht="30.75" customHeight="1" spans="1:16">
+    <row r="22" spans="1:16" ht="30.75" customHeight="1">
       <c r="A22" s="20"/>
       <c r="B22" s="19"/>
       <c r="D22" s="18"/>
@@ -3182,7 +2552,7 @@
       <c r="O22" s="18"/>
       <c r="P22" s="29"/>
     </row>
-    <row r="23" ht="27" customHeight="1" spans="1:16">
+    <row r="23" spans="1:16" ht="27" customHeight="1">
       <c r="A23" s="20"/>
       <c r="B23" s="19"/>
       <c r="D23" s="18"/>
@@ -3199,7 +2569,7 @@
       <c r="O23" s="18"/>
       <c r="P23" s="29"/>
     </row>
-    <row r="24" ht="28.5" customHeight="1" spans="1:16">
+    <row r="24" spans="1:16" ht="28.5" customHeight="1">
       <c r="A24" s="20"/>
       <c r="B24" s="19"/>
       <c r="D24" s="18"/>
@@ -3216,7 +2586,7 @@
       <c r="O24" s="18"/>
       <c r="P24" s="29"/>
     </row>
-    <row r="25" ht="33.75" customHeight="1" spans="1:16">
+    <row r="25" spans="1:16" ht="33.75" customHeight="1">
       <c r="A25" s="20"/>
       <c r="B25" s="19"/>
       <c r="D25" s="18"/>
@@ -3233,7 +2603,7 @@
       <c r="O25" s="18"/>
       <c r="P25" s="29"/>
     </row>
-    <row r="26" ht="30.75" customHeight="1" spans="1:16">
+    <row r="26" spans="1:16" ht="30.75" customHeight="1">
       <c r="A26" s="20"/>
       <c r="B26" s="19"/>
       <c r="D26" s="18"/>
@@ -3250,7 +2620,7 @@
       <c r="O26" s="18"/>
       <c r="P26" s="29"/>
     </row>
-    <row r="27" ht="30" customHeight="1" spans="1:16">
+    <row r="27" spans="1:16" ht="30" customHeight="1">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="D27" s="18"/>
@@ -3267,7 +2637,7 @@
       <c r="O27" s="18"/>
       <c r="P27" s="29"/>
     </row>
-    <row r="28" ht="30" customHeight="1" spans="1:16">
+    <row r="28" spans="1:16" ht="30" customHeight="1">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
       <c r="D28" s="18"/>
@@ -3284,7 +2654,7 @@
       <c r="O28" s="18"/>
       <c r="P28" s="29"/>
     </row>
-    <row r="29" ht="25.5" customHeight="1" spans="1:16">
+    <row r="29" spans="1:16" ht="25.5" customHeight="1">
       <c r="A29" s="20"/>
       <c r="B29" s="19"/>
       <c r="D29" s="18"/>
@@ -3301,7 +2671,7 @@
       <c r="O29" s="18"/>
       <c r="P29" s="29"/>
     </row>
-    <row r="30" ht="27" customHeight="1" spans="1:16">
+    <row r="30" spans="1:16" ht="27" customHeight="1">
       <c r="A30" s="20"/>
       <c r="B30" s="19"/>
       <c r="D30" s="18"/>
@@ -3318,7 +2688,7 @@
       <c r="O30" s="18"/>
       <c r="P30" s="29"/>
     </row>
-    <row r="31" ht="26.25" customHeight="1" spans="1:16">
+    <row r="31" spans="1:16" ht="26.25" customHeight="1">
       <c r="A31" s="20"/>
       <c r="B31" s="18"/>
       <c r="D31" s="18"/>
@@ -3454,7 +2824,7 @@
       <c r="O38" s="18"/>
       <c r="P38" s="29"/>
     </row>
-    <row r="39" ht="18.75" spans="1:16">
+    <row r="39" spans="1:16">
       <c r="A39" s="22"/>
       <c r="B39" s="23"/>
       <c r="C39" s="24"/>
@@ -3473,7 +2843,7 @@
       <c r="P39" s="30"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>